--- a/1-SystemDocs/Pending Sensor Selection/Pending Sensor Selection/Pending Sensor Selection.xlsx
+++ b/1-SystemDocs/Pending Sensor Selection/Pending Sensor Selection/Pending Sensor Selection.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StephenJordan/odrive/Work Folder/Clients/997 (OH Projects)/007 (Large-Scale Fire Testing Sensor Block Development)/Work Product/Pending Sensor Selection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\1-SystemDocs\Pending Sensor Selection\Pending Sensor Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649652D3-0139-DC48-A183-EBCDF8652D35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="10820" windowWidth="27240" windowHeight="16440" xr2:uid="{23D01669-B08D-8149-96C6-BBC9F7C86D12}"/>
+    <workbookView xWindow="21300" yWindow="10815" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -200,11 +199,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -241,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,9 +272,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -277,10 +281,16 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Mena" xfId="1" builtinId="4"/>
+    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,23 +601,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CF8325-EA5E-014B-A9E1-DB24BB7B7656}">
-  <dimension ref="B4:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="10.875" style="3"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +640,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
@@ -638,8 +648,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -648,30 +661,32 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>30</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>50</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
@@ -692,20 +707,25 @@
         <v>344.5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -728,14 +748,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -758,14 +782,18 @@
         <v>950</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -788,13 +816,16 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
@@ -818,13 +849,16 @@
         <v>846.8</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
@@ -848,13 +882,16 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
@@ -878,13 +915,16 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
@@ -908,13 +948,16 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
@@ -938,14 +981,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -968,56 +1014,56 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>8.06</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>50</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <f t="shared" si="0"/>
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
@@ -1041,7 +1087,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
         <v>50</v>
       </c>
@@ -1057,7 +1103,7 @@
         <v>9422.2999999999993</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
         <v>47</v>
       </c>
@@ -1079,5 +1125,6 @@
     <mergeCell ref="H30:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>